--- a/cpr/2022-1/check.xlsx
+++ b/cpr/2022-1/check.xlsx
@@ -514,33 +514,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
       <c r="I2" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -568,12 +568,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -622,21 +622,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>33.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -838,21 +838,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1000,21 +1000,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>49.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1064,23 +1064,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1162,21 +1162,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1270,21 +1270,21 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>41.00</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>39.00</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1324,21 +1324,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1486,33 +1486,33 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>41.00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>38.00</t>
-        </is>
-      </c>
       <c r="I20" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -1540,33 +1540,33 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1594,33 +1594,33 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1658,11 +1658,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1972,33 +1972,33 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2026,21 +2026,21 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2080,33 +2080,33 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2134,21 +2134,21 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>28.00</t>
-        </is>
-      </c>
       <c r="I32" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2188,12 +2188,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2296,33 +2296,33 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -2350,21 +2350,21 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2458,21 +2458,21 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2512,21 +2512,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2620,33 +2620,33 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2674,21 +2674,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2782,12 +2782,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2841,28 +2841,28 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2895,28 +2895,28 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -2944,21 +2944,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2998,12 +2998,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3012,19 +3012,19 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -3052,12 +3052,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3106,33 +3106,33 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>41.00</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -3160,12 +3160,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3214,33 +3214,33 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -3268,33 +3268,33 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -3322,21 +3322,21 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
       <c r="I54" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3376,33 +3376,33 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3440,23 +3440,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3484,33 +3484,33 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -3538,33 +3538,33 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3602,11 +3602,11 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3651,16 +3651,16 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3710,23 +3710,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3764,23 +3764,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -3808,12 +3808,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3862,12 +3862,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3970,12 +3970,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4078,33 +4078,33 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -4132,33 +4132,33 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D+</t>
         </is>
       </c>
     </row>
@@ -4186,21 +4186,21 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
